--- a/Code/Results/Cases/Case_3_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_210/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.15200037764443</v>
+        <v>8.997321071046972</v>
       </c>
       <c r="C2">
-        <v>8.30981472671983</v>
+        <v>6.919270698895518</v>
       </c>
       <c r="D2">
-        <v>5.844021772157042</v>
+        <v>4.700355325041238</v>
       </c>
       <c r="F2">
-        <v>12.86355686953891</v>
+        <v>20.0320782451536</v>
       </c>
       <c r="G2">
-        <v>13.57857313411874</v>
+        <v>21.35332168543748</v>
       </c>
       <c r="H2">
-        <v>7.303758684320479</v>
+        <v>12.64010216132666</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.72024660266656</v>
+        <v>9.026342301698193</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.73409058979307</v>
+        <v>18.21877007728061</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.28879378707991</v>
+        <v>8.593600640786612</v>
       </c>
       <c r="C3">
-        <v>8.018191467047405</v>
+        <v>6.80365787432458</v>
       </c>
       <c r="D3">
-        <v>5.557887139756176</v>
+        <v>4.577245143934905</v>
       </c>
       <c r="F3">
-        <v>12.93944405729553</v>
+        <v>20.14374782432396</v>
       </c>
       <c r="G3">
-        <v>13.91126894812692</v>
+        <v>21.55010247829403</v>
       </c>
       <c r="H3">
-        <v>7.45106679612344</v>
+        <v>12.69944213428341</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.0720036242899</v>
+        <v>8.71763340129986</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.99486712627292</v>
+        <v>18.33375722584825</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.72870254546578</v>
+        <v>8.335900059793278</v>
       </c>
       <c r="C4">
-        <v>7.834317930243231</v>
+        <v>6.731836500228132</v>
       </c>
       <c r="D4">
-        <v>5.373944311113576</v>
+        <v>4.499214202841038</v>
       </c>
       <c r="F4">
-        <v>13.00352498201495</v>
+        <v>20.21839751029265</v>
       </c>
       <c r="G4">
-        <v>14.14207740353589</v>
+        <v>21.67942905547092</v>
       </c>
       <c r="H4">
-        <v>7.545527810264304</v>
+        <v>12.73793592786366</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.65509506444839</v>
+        <v>8.521160768418769</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.16466759388356</v>
+        <v>18.40859208710413</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.49293278204006</v>
+        <v>8.228546149228047</v>
       </c>
       <c r="C5">
-        <v>7.758268570382737</v>
+        <v>6.702388778868662</v>
       </c>
       <c r="D5">
-        <v>5.296960976460003</v>
+        <v>4.466831102332942</v>
       </c>
       <c r="F5">
-        <v>13.03383016380242</v>
+        <v>20.25034303777106</v>
       </c>
       <c r="G5">
-        <v>14.24234055155487</v>
+        <v>21.73426095189424</v>
       </c>
       <c r="H5">
-        <v>7.585016820747543</v>
+        <v>12.75414105733104</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.48056573793659</v>
+        <v>8.439438627085172</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.2362085622385</v>
+        <v>18.44015264227836</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.4533300690479</v>
+        <v>8.210583000873999</v>
       </c>
       <c r="C6">
-        <v>7.74557588493765</v>
+        <v>6.69748902957558</v>
       </c>
       <c r="D6">
-        <v>5.284057312614638</v>
+        <v>4.461419476165821</v>
       </c>
       <c r="F6">
-        <v>13.03910948506355</v>
+        <v>20.25573954639288</v>
       </c>
       <c r="G6">
-        <v>14.25935118776967</v>
+        <v>21.74349418855765</v>
       </c>
       <c r="H6">
-        <v>7.591633694635484</v>
+        <v>12.75686325510321</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.45130905689849</v>
+        <v>8.425771196657029</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.24822716770992</v>
+        <v>18.4454575719236</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.72555329441924</v>
+        <v>8.334461532759885</v>
       </c>
       <c r="C7">
-        <v>7.833296706447612</v>
+        <v>6.731440046371118</v>
       </c>
       <c r="D7">
-        <v>5.372914212577977</v>
+        <v>4.498779801327661</v>
       </c>
       <c r="F7">
-        <v>13.00391698748919</v>
+        <v>20.21882216972956</v>
       </c>
       <c r="G7">
-        <v>14.14340504263852</v>
+        <v>21.68015992224237</v>
       </c>
       <c r="H7">
-        <v>7.546056359323387</v>
+        <v>12.73815237493625</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.65275990427011</v>
+        <v>8.520065231613986</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.16562303188698</v>
+        <v>18.40901341198292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.8606262580351</v>
+        <v>8.860227065234618</v>
       </c>
       <c r="C8">
-        <v>8.210314496478714</v>
+        <v>6.879598348506219</v>
       </c>
       <c r="D8">
-        <v>5.747103329544505</v>
+        <v>4.658430184744993</v>
       </c>
       <c r="F8">
-        <v>12.88597030997537</v>
+        <v>20.06931632997402</v>
       </c>
       <c r="G8">
-        <v>13.68748850331768</v>
+        <v>21.41940232279584</v>
       </c>
       <c r="H8">
-        <v>7.353708647013743</v>
+        <v>12.6601358144924</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.5007127577704</v>
+        <v>8.921383763656241</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.82193995409301</v>
+        <v>18.25753952792454</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.84700978156023</v>
+        <v>9.808602843757157</v>
       </c>
       <c r="C9">
-        <v>8.907896205839739</v>
+        <v>7.16224123440043</v>
       </c>
       <c r="D9">
-        <v>6.413623606372526</v>
+        <v>4.950979057601574</v>
       </c>
       <c r="F9">
-        <v>12.80248771691379</v>
+        <v>19.8246199236234</v>
       </c>
       <c r="G9">
-        <v>13.02673265716014</v>
+        <v>20.97587498347187</v>
       </c>
       <c r="H9">
-        <v>7.009090848445801</v>
+        <v>12.52344045089448</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.00983591912922</v>
+        <v>9.650212190735271</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.22938850074251</v>
+        <v>17.99405832655994</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.16012643476042</v>
+        <v>10.44970025933289</v>
       </c>
       <c r="C10">
-        <v>9.390870100025756</v>
+        <v>7.363451649382577</v>
       </c>
       <c r="D10">
-        <v>6.860499508852159</v>
+        <v>5.15200380099698</v>
       </c>
       <c r="F10">
-        <v>12.84328324691252</v>
+        <v>19.67468210636081</v>
       </c>
       <c r="G10">
-        <v>12.71732146835681</v>
+        <v>20.69186013613089</v>
       </c>
       <c r="H10">
-        <v>6.776975626690557</v>
+        <v>12.43288674866353</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.02100215872588</v>
+        <v>10.14649417033902</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.851024867125838</v>
+        <v>17.82090552800811</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.72585493972407</v>
+        <v>10.72841699007262</v>
       </c>
       <c r="C11">
-        <v>9.60348231665157</v>
+        <v>7.453263881153285</v>
       </c>
       <c r="D11">
-        <v>7.054245234788431</v>
+        <v>5.240180567707514</v>
       </c>
       <c r="F11">
-        <v>12.88642288809426</v>
+        <v>19.61301099173721</v>
       </c>
       <c r="G11">
-        <v>12.62264888678254</v>
+        <v>20.57185475723108</v>
       </c>
       <c r="H11">
-        <v>6.676296637443989</v>
+        <v>12.39382412562459</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.45930238387083</v>
+        <v>10.36311567891324</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.693220485892997</v>
+        <v>17.74656393657688</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.93555247782181</v>
+        <v>10.83204590228777</v>
       </c>
       <c r="C12">
-        <v>9.682925516939617</v>
+        <v>7.487000834429337</v>
       </c>
       <c r="D12">
-        <v>7.126225255061652</v>
+        <v>5.273081927013843</v>
       </c>
       <c r="F12">
-        <v>12.906474377869</v>
+        <v>19.59060258403747</v>
       </c>
       <c r="G12">
-        <v>12.594091380194</v>
+        <v>20.52774414238996</v>
       </c>
       <c r="H12">
-        <v>6.638913353483685</v>
+        <v>12.37933767888958</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.62212914099966</v>
+        <v>10.44378559217916</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.635713200891342</v>
+        <v>17.71904909943488</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.89059161527262</v>
+        <v>10.80981354123406</v>
       </c>
       <c r="C13">
-        <v>9.665864212264003</v>
+        <v>7.479747514594052</v>
       </c>
       <c r="D13">
-        <v>7.110784969016199</v>
+        <v>5.266018073505936</v>
       </c>
       <c r="F13">
-        <v>12.90198797011183</v>
+        <v>19.59538652004073</v>
       </c>
       <c r="G13">
-        <v>12.59990683296667</v>
+        <v>20.53718470145091</v>
       </c>
       <c r="H13">
-        <v>6.646930902043145</v>
+        <v>12.38244400786166</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.5872018649333</v>
+        <v>10.42647303184873</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.647995057923486</v>
+        <v>17.72494659027782</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.74319759936972</v>
+        <v>10.73698127626202</v>
       </c>
       <c r="C14">
-        <v>9.610039820010318</v>
+        <v>7.456045054334637</v>
       </c>
       <c r="D14">
-        <v>7.060194950420838</v>
+        <v>5.242897290145887</v>
       </c>
       <c r="F14">
-        <v>12.88799709194386</v>
+        <v>19.61114846781032</v>
       </c>
       <c r="G14">
-        <v>12.62014947852865</v>
+        <v>20.56819897637172</v>
       </c>
       <c r="H14">
-        <v>6.673206005054591</v>
+        <v>12.39262619360995</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.47276146597196</v>
+        <v>10.36977993730727</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.688443055573993</v>
+        <v>17.74428751240414</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.65232488873995</v>
+        <v>10.69211848573564</v>
       </c>
       <c r="C15">
-        <v>9.575705319287632</v>
+        <v>7.44149032091624</v>
       </c>
       <c r="D15">
-        <v>7.029026055388196</v>
+        <v>5.228670893873173</v>
       </c>
       <c r="F15">
-        <v>12.87991624194612</v>
+        <v>19.62092634909002</v>
       </c>
       <c r="G15">
-        <v>12.63351816783451</v>
+        <v>20.58737001021137</v>
       </c>
       <c r="H15">
-        <v>6.689397998368662</v>
+        <v>12.39890287065901</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.4022527359333</v>
+        <v>10.33487541973538</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.71351770277928</v>
+        <v>17.75621731096494</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.12251970001572</v>
+        <v>10.43122035917527</v>
       </c>
       <c r="C16">
-        <v>9.376828337779505</v>
+        <v>7.357545378719377</v>
       </c>
       <c r="D16">
-        <v>6.847644377499505</v>
+        <v>5.146173766905724</v>
       </c>
       <c r="F16">
-        <v>12.84097438933797</v>
+        <v>19.67884443184051</v>
       </c>
       <c r="G16">
-        <v>12.7244928049368</v>
+        <v>20.69988868924606</v>
       </c>
       <c r="H16">
-        <v>6.783656965990303</v>
+        <v>12.4354824002988</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.99191908052552</v>
+        <v>10.13214949024998</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.861641623010753</v>
+        <v>17.82585301228835</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.78941270159185</v>
+        <v>10.26781461682259</v>
       </c>
       <c r="C17">
-        <v>9.252969946002679</v>
+        <v>7.305588753318927</v>
       </c>
       <c r="D17">
-        <v>6.733916708453551</v>
+        <v>5.094712712294606</v>
       </c>
       <c r="F17">
-        <v>12.82351382573682</v>
+        <v>19.71605312909458</v>
       </c>
       <c r="G17">
-        <v>12.7925790077811</v>
+        <v>20.77127764570071</v>
       </c>
       <c r="H17">
-        <v>6.842763186322529</v>
+        <v>12.45846799763298</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.73461427954796</v>
+        <v>10.00540838890021</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.956305970620862</v>
+        <v>17.86970609758902</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.59484137504413</v>
+        <v>10.17261444211378</v>
       </c>
       <c r="C18">
-        <v>9.181064455665011</v>
+        <v>7.27554429421557</v>
       </c>
       <c r="D18">
-        <v>6.667606192611997</v>
+        <v>5.064806861511704</v>
       </c>
       <c r="F18">
-        <v>12.81577472947601</v>
+        <v>19.73806951420103</v>
       </c>
       <c r="G18">
-        <v>12.83603717004844</v>
+        <v>20.81320344573104</v>
       </c>
       <c r="H18">
-        <v>6.877219369081447</v>
+        <v>12.47188929670997</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.584579408616</v>
+        <v>9.931652320882311</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.01208896000053</v>
+        <v>17.89534585821732</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.52845121033966</v>
+        <v>10.14017477146598</v>
       </c>
       <c r="C19">
-        <v>9.156605792930508</v>
+        <v>7.265345017282389</v>
       </c>
       <c r="D19">
-        <v>6.645001008978145</v>
+        <v>5.054629168365179</v>
       </c>
       <c r="F19">
-        <v>12.81354433593928</v>
+        <v>19.74562933890371</v>
       </c>
       <c r="G19">
-        <v>12.85146902639979</v>
+        <v>20.82754700511228</v>
       </c>
       <c r="H19">
-        <v>6.888963630414533</v>
+        <v>12.4764679905852</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.53343089196787</v>
+        <v>9.906533922441785</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.03119989085159</v>
+        <v>17.90409859205229</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.82518052867098</v>
+        <v>10.2853354740983</v>
       </c>
       <c r="C20">
-        <v>9.266224123524989</v>
+        <v>7.311136414536767</v>
       </c>
       <c r="D20">
-        <v>6.746116212535338</v>
+        <v>5.100222726932161</v>
       </c>
       <c r="F20">
-        <v>12.82513274699711</v>
+        <v>19.71202851935981</v>
       </c>
       <c r="G20">
-        <v>12.78488158117444</v>
+        <v>20.76358859374021</v>
       </c>
       <c r="H20">
-        <v>6.83642339689524</v>
+        <v>12.45600038603565</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.76221619054707</v>
+        <v>10.01898933875852</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.946089357353243</v>
+        <v>17.86499474147202</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.7866136376141</v>
+        <v>10.75842625906646</v>
       </c>
       <c r="C21">
-        <v>9.626466142585022</v>
+        <v>7.463014648736296</v>
       </c>
       <c r="D21">
-        <v>7.075092216931468</v>
+        <v>5.249701845365147</v>
       </c>
       <c r="F21">
-        <v>12.89200435085416</v>
+        <v>19.60649311085651</v>
       </c>
       <c r="G21">
-        <v>12.61400050243718</v>
+        <v>20.55905307295118</v>
       </c>
       <c r="H21">
-        <v>6.665467931408041</v>
+        <v>12.38962714691696</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.50646101036259</v>
+        <v>10.38646931684555</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.676499794383327</v>
+        <v>17.73858933274785</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.38856264169038</v>
+        <v>11.05643598695265</v>
       </c>
       <c r="C22">
-        <v>9.855660079343897</v>
+        <v>7.56067368865153</v>
       </c>
       <c r="D22">
-        <v>7.28200669067645</v>
+        <v>5.344535745377939</v>
       </c>
       <c r="F22">
-        <v>12.95743793216231</v>
+        <v>19.5430307643392</v>
       </c>
       <c r="G22">
-        <v>12.54513073119202</v>
+        <v>20.43315116719076</v>
       </c>
       <c r="H22">
-        <v>6.558082288016704</v>
+        <v>12.34803007614222</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.97451179350485</v>
+        <v>10.61869476005571</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.513527443120454</v>
+        <v>17.65968746588203</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.06970086108944</v>
+        <v>10.89842219997662</v>
       </c>
       <c r="C23">
-        <v>9.733920474595891</v>
+        <v>7.508705970501435</v>
       </c>
       <c r="D23">
-        <v>7.172316809507788</v>
+        <v>5.294188534447495</v>
       </c>
       <c r="F23">
-        <v>12.92047089924654</v>
+        <v>19.57639585034532</v>
       </c>
       <c r="G23">
-        <v>12.57775243171029</v>
+        <v>20.49963245638942</v>
       </c>
       <c r="H23">
-        <v>6.614985368450784</v>
+        <v>12.3700684087994</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.72639123432174</v>
+        <v>10.49549213251572</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.599229640064195</v>
+        <v>17.70145920448343</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.80901943776385</v>
+        <v>10.27741820238464</v>
       </c>
       <c r="C24">
-        <v>9.260234079161506</v>
+        <v>7.308628856606841</v>
       </c>
       <c r="D24">
-        <v>6.740603702812624</v>
+        <v>5.097732645226571</v>
       </c>
       <c r="F24">
-        <v>12.82439368504494</v>
+        <v>19.7138461002245</v>
       </c>
       <c r="G24">
-        <v>12.78834819974582</v>
+        <v>20.7670620634235</v>
       </c>
       <c r="H24">
-        <v>6.839288138066993</v>
+        <v>12.45711534972913</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.74974392677965</v>
+        <v>10.01285216283875</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.950704068791884</v>
+        <v>17.86712341228419</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.33534465695989</v>
+        <v>9.561491735250826</v>
       </c>
       <c r="C25">
-        <v>8.724107544076363</v>
+        <v>7.086797060417347</v>
       </c>
       <c r="D25">
-        <v>6.240726682340033</v>
+        <v>4.874186759183072</v>
       </c>
       <c r="F25">
-        <v>12.80798270839875</v>
+        <v>19.88559679010333</v>
       </c>
       <c r="G25">
-        <v>13.17714908113521</v>
+        <v>21.0885500021882</v>
       </c>
       <c r="H25">
-        <v>7.098718923463847</v>
+        <v>12.55868169954606</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.61849652215271</v>
+        <v>9.45968613354388</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.38027632699231</v>
+        <v>18.06174780040752</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_210/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.997321071046972</v>
+        <v>14.15200037764443</v>
       </c>
       <c r="C2">
-        <v>6.919270698895518</v>
+        <v>8.309814726719928</v>
       </c>
       <c r="D2">
-        <v>4.700355325041238</v>
+        <v>5.844021772156983</v>
       </c>
       <c r="F2">
-        <v>20.0320782451536</v>
+        <v>12.86355686953883</v>
       </c>
       <c r="G2">
-        <v>21.35332168543748</v>
+        <v>13.57857313411856</v>
       </c>
       <c r="H2">
-        <v>12.64010216132666</v>
+        <v>7.303758684320483</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.026342301698193</v>
+        <v>12.7202466026666</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.21877007728061</v>
+        <v>10.73409058979299</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.593600640786612</v>
+        <v>13.28879378707986</v>
       </c>
       <c r="C3">
-        <v>6.80365787432458</v>
+        <v>8.018191467047405</v>
       </c>
       <c r="D3">
-        <v>4.577245143934905</v>
+        <v>5.557887139756189</v>
       </c>
       <c r="F3">
-        <v>20.14374782432396</v>
+        <v>12.93944405729554</v>
       </c>
       <c r="G3">
-        <v>21.55010247829403</v>
+        <v>13.91126894812692</v>
       </c>
       <c r="H3">
-        <v>12.69944213428341</v>
+        <v>7.451066796123445</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.71763340129986</v>
+        <v>12.07200362428987</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.33375722584825</v>
+        <v>10.99486712627292</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.335900059793278</v>
+        <v>12.72870254546559</v>
       </c>
       <c r="C4">
-        <v>6.731836500228132</v>
+        <v>7.834317930243197</v>
       </c>
       <c r="D4">
-        <v>4.499214202841038</v>
+        <v>5.373944311113545</v>
       </c>
       <c r="F4">
-        <v>20.21839751029265</v>
+        <v>13.00352498201511</v>
       </c>
       <c r="G4">
-        <v>21.67942905547092</v>
+        <v>14.14207740353627</v>
       </c>
       <c r="H4">
-        <v>12.73793592786366</v>
+        <v>7.545527810264366</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.521160768418769</v>
+        <v>11.65509506444827</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.40859208710413</v>
+        <v>11.16466759388372</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.228546149228047</v>
+        <v>12.49293278204006</v>
       </c>
       <c r="C5">
-        <v>6.702388778868662</v>
+        <v>7.758268570382554</v>
       </c>
       <c r="D5">
-        <v>4.466831102332942</v>
+        <v>5.296960976460126</v>
       </c>
       <c r="F5">
-        <v>20.25034303777106</v>
+        <v>13.03383016380208</v>
       </c>
       <c r="G5">
-        <v>21.73426095189424</v>
+        <v>14.24234055155436</v>
       </c>
       <c r="H5">
-        <v>12.75414105733104</v>
+        <v>7.585016820747348</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.439438627085172</v>
+        <v>11.4805657379366</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.44015264227836</v>
+        <v>11.23620856223824</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.210583000873999</v>
+        <v>12.4533300690479</v>
       </c>
       <c r="C6">
-        <v>6.69748902957558</v>
+        <v>7.745575884937534</v>
       </c>
       <c r="D6">
-        <v>4.461419476165821</v>
+        <v>5.284057312614775</v>
       </c>
       <c r="F6">
-        <v>20.25573954639288</v>
+        <v>13.03910948506353</v>
       </c>
       <c r="G6">
-        <v>21.74349418855765</v>
+        <v>14.25935118776982</v>
       </c>
       <c r="H6">
-        <v>12.75686325510321</v>
+        <v>7.591633694635425</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.425771196657029</v>
+        <v>11.45130905689848</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.4454575719236</v>
+        <v>11.24822716770996</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.334461532759885</v>
+        <v>12.72555329441925</v>
       </c>
       <c r="C7">
-        <v>6.731440046371118</v>
+        <v>7.833296706447661</v>
       </c>
       <c r="D7">
-        <v>4.498779801327661</v>
+        <v>5.372914212578025</v>
       </c>
       <c r="F7">
-        <v>20.21882216972956</v>
+        <v>13.00391698748911</v>
       </c>
       <c r="G7">
-        <v>21.68015992224237</v>
+        <v>14.14340504263849</v>
       </c>
       <c r="H7">
-        <v>12.73815237493625</v>
+        <v>7.546056359323387</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.520065231613986</v>
+        <v>11.65275990427017</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.40901341198292</v>
+        <v>11.16562303188694</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.860227065234618</v>
+        <v>13.86062625803507</v>
       </c>
       <c r="C8">
-        <v>6.879598348506219</v>
+        <v>8.210314496478913</v>
       </c>
       <c r="D8">
-        <v>4.658430184744993</v>
+        <v>5.747103329544522</v>
       </c>
       <c r="F8">
-        <v>20.06931632997402</v>
+        <v>12.88597030997544</v>
       </c>
       <c r="G8">
-        <v>21.41940232279584</v>
+        <v>13.68748850331765</v>
       </c>
       <c r="H8">
-        <v>12.6601358144924</v>
+        <v>7.353708647013861</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.921383763656241</v>
+        <v>12.5007127577704</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.25753952792454</v>
+        <v>10.82193995409303</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.808602843757157</v>
+        <v>15.84700978156025</v>
       </c>
       <c r="C9">
-        <v>7.16224123440043</v>
+        <v>8.907896205839567</v>
       </c>
       <c r="D9">
-        <v>4.950979057601574</v>
+        <v>6.413623606372688</v>
       </c>
       <c r="F9">
-        <v>19.8246199236234</v>
+        <v>12.8024877169137</v>
       </c>
       <c r="G9">
-        <v>20.97587498347187</v>
+        <v>13.02673265716014</v>
       </c>
       <c r="H9">
-        <v>12.52344045089448</v>
+        <v>7.009090848445797</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.650212190735271</v>
+        <v>14.0098359191292</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.99405832655994</v>
+        <v>10.2293885007425</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.44970025933289</v>
+        <v>17.16012643476045</v>
       </c>
       <c r="C10">
-        <v>7.363451649382577</v>
+        <v>9.390870100025934</v>
       </c>
       <c r="D10">
-        <v>5.15200380099698</v>
+        <v>6.860499508852144</v>
       </c>
       <c r="F10">
-        <v>19.67468210636081</v>
+        <v>12.84328324691236</v>
       </c>
       <c r="G10">
-        <v>20.69186013613089</v>
+        <v>12.71732146835643</v>
       </c>
       <c r="H10">
-        <v>12.43288674866353</v>
+        <v>6.776975626690497</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.14649417033902</v>
+        <v>15.02100215872596</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.82090552800811</v>
+        <v>9.851024867125629</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.72841699007262</v>
+        <v>17.72585493972402</v>
       </c>
       <c r="C11">
-        <v>7.453263881153285</v>
+        <v>9.603482316651712</v>
       </c>
       <c r="D11">
-        <v>5.240180567707514</v>
+        <v>7.054245234788405</v>
       </c>
       <c r="F11">
-        <v>19.61301099173721</v>
+        <v>12.88642288809431</v>
       </c>
       <c r="G11">
-        <v>20.57185475723108</v>
+        <v>12.62264888678265</v>
       </c>
       <c r="H11">
-        <v>12.39382412562459</v>
+        <v>6.676296637443982</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.36311567891324</v>
+        <v>15.45930238387083</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.74656393657688</v>
+        <v>9.693220485893059</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.83204590228777</v>
+        <v>17.93555247782184</v>
       </c>
       <c r="C12">
-        <v>7.487000834429337</v>
+        <v>9.682925516939491</v>
       </c>
       <c r="D12">
-        <v>5.273081927013843</v>
+        <v>7.126225255061589</v>
       </c>
       <c r="F12">
-        <v>19.59060258403747</v>
+        <v>12.90647437786896</v>
       </c>
       <c r="G12">
-        <v>20.52774414238996</v>
+        <v>12.59409138019406</v>
       </c>
       <c r="H12">
-        <v>12.37933767888958</v>
+        <v>6.638913353483568</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.44378559217916</v>
+        <v>15.62212914099967</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.71904909943488</v>
+        <v>9.63571320089123</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.80981354123406</v>
+        <v>17.89059161527264</v>
       </c>
       <c r="C13">
-        <v>7.479747514594052</v>
+        <v>9.665864212263989</v>
       </c>
       <c r="D13">
-        <v>5.266018073505936</v>
+        <v>7.11078496901612</v>
       </c>
       <c r="F13">
-        <v>19.59538652004073</v>
+        <v>12.90198797011188</v>
       </c>
       <c r="G13">
-        <v>20.53718470145091</v>
+        <v>12.59990683296672</v>
       </c>
       <c r="H13">
-        <v>12.38244400786166</v>
+        <v>6.646930902043148</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.42647303184873</v>
+        <v>15.5872018649333</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.72494659027782</v>
+        <v>9.647995057923502</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.73698127626202</v>
+        <v>17.74319759936969</v>
       </c>
       <c r="C14">
-        <v>7.456045054334637</v>
+        <v>9.610039820010444</v>
       </c>
       <c r="D14">
-        <v>5.242897290145887</v>
+        <v>7.060194950420858</v>
       </c>
       <c r="F14">
-        <v>19.61114846781032</v>
+        <v>12.88799709194383</v>
       </c>
       <c r="G14">
-        <v>20.56819897637172</v>
+        <v>12.62014947852851</v>
       </c>
       <c r="H14">
-        <v>12.39262619360995</v>
+        <v>6.673206005054709</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.36977993730727</v>
+        <v>15.47276146597194</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.74428751240414</v>
+        <v>9.68844305557403</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.69211848573564</v>
+        <v>17.65232488873991</v>
       </c>
       <c r="C15">
-        <v>7.44149032091624</v>
+        <v>9.575705319287529</v>
       </c>
       <c r="D15">
-        <v>5.228670893873173</v>
+        <v>7.029026055388207</v>
       </c>
       <c r="F15">
-        <v>19.62092634909002</v>
+        <v>12.8799162419462</v>
       </c>
       <c r="G15">
-        <v>20.58737001021137</v>
+        <v>12.63351816783471</v>
       </c>
       <c r="H15">
-        <v>12.39890287065901</v>
+        <v>6.689397998368661</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.33487541973538</v>
+        <v>15.40225273593323</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.75621731096494</v>
+        <v>9.713517702779368</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.43122035917527</v>
+        <v>17.12251970001573</v>
       </c>
       <c r="C16">
-        <v>7.357545378719377</v>
+        <v>9.376828337779477</v>
       </c>
       <c r="D16">
-        <v>5.146173766905724</v>
+        <v>6.847644377499579</v>
       </c>
       <c r="F16">
-        <v>19.67884443184051</v>
+        <v>12.84097438933795</v>
       </c>
       <c r="G16">
-        <v>20.69988868924606</v>
+        <v>12.72449280493684</v>
       </c>
       <c r="H16">
-        <v>12.4354824002988</v>
+        <v>6.783656965990301</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.13214949024998</v>
+        <v>14.99191908052553</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.82585301228835</v>
+        <v>9.861641623010795</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.26781461682259</v>
+        <v>16.78941270159183</v>
       </c>
       <c r="C17">
-        <v>7.305588753318927</v>
+        <v>9.252969946002517</v>
       </c>
       <c r="D17">
-        <v>5.094712712294606</v>
+        <v>6.733916708453544</v>
       </c>
       <c r="F17">
-        <v>19.71605312909458</v>
+        <v>12.82351382573684</v>
       </c>
       <c r="G17">
-        <v>20.77127764570071</v>
+        <v>12.79257900778105</v>
       </c>
       <c r="H17">
-        <v>12.45846799763298</v>
+        <v>6.84276318632259</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.00540838890021</v>
+        <v>14.73461427954792</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.86970609758902</v>
+        <v>9.956305970620869</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.17261444211378</v>
+        <v>16.59484137504413</v>
       </c>
       <c r="C18">
-        <v>7.27554429421557</v>
+        <v>9.181064455664922</v>
       </c>
       <c r="D18">
-        <v>5.064806861511704</v>
+        <v>6.667606192611998</v>
       </c>
       <c r="F18">
-        <v>19.73806951420103</v>
+        <v>12.81577472947602</v>
       </c>
       <c r="G18">
-        <v>20.81320344573104</v>
+        <v>12.83603717004854</v>
       </c>
       <c r="H18">
-        <v>12.47188929670997</v>
+        <v>6.877219369081386</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.931652320882311</v>
+        <v>14.58457940861596</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.89534585821732</v>
+        <v>10.01208896000053</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.14017477146598</v>
+        <v>16.52845121033965</v>
       </c>
       <c r="C19">
-        <v>7.265345017282389</v>
+        <v>9.156605792930407</v>
       </c>
       <c r="D19">
-        <v>5.054629168365179</v>
+        <v>6.645001008978206</v>
       </c>
       <c r="F19">
-        <v>19.74562933890371</v>
+        <v>12.81354433593932</v>
       </c>
       <c r="G19">
-        <v>20.82754700511228</v>
+        <v>12.85146902639991</v>
       </c>
       <c r="H19">
-        <v>12.4764679905852</v>
+        <v>6.8889636304146</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.906533922441785</v>
+        <v>14.53343089196786</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.90409859205229</v>
+        <v>10.03119989085164</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.2853354740983</v>
+        <v>16.82518052867098</v>
       </c>
       <c r="C20">
-        <v>7.311136414536767</v>
+        <v>9.266224123525092</v>
       </c>
       <c r="D20">
-        <v>5.100222726932161</v>
+        <v>6.746116212535311</v>
       </c>
       <c r="F20">
-        <v>19.71202851935981</v>
+        <v>12.82513274699719</v>
       </c>
       <c r="G20">
-        <v>20.76358859374021</v>
+        <v>12.7848815811745</v>
       </c>
       <c r="H20">
-        <v>12.45600038603565</v>
+        <v>6.83642339689524</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.01898933875852</v>
+        <v>14.76221619054705</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.86499474147202</v>
+        <v>9.946089357353296</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.75842625906646</v>
+        <v>17.78661363761411</v>
       </c>
       <c r="C21">
-        <v>7.463014648736296</v>
+        <v>9.626466142585025</v>
       </c>
       <c r="D21">
-        <v>5.249701845365147</v>
+        <v>7.075092216931475</v>
       </c>
       <c r="F21">
-        <v>19.60649311085651</v>
+        <v>12.89200435085408</v>
       </c>
       <c r="G21">
-        <v>20.55905307295118</v>
+        <v>12.6140005024369</v>
       </c>
       <c r="H21">
-        <v>12.38962714691696</v>
+        <v>6.665467931408044</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.38646931684555</v>
+        <v>15.50646101036258</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.73858933274785</v>
+        <v>9.676499794383226</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.05643598695265</v>
+        <v>18.38856264169041</v>
       </c>
       <c r="C22">
-        <v>7.56067368865153</v>
+        <v>9.855660079343895</v>
       </c>
       <c r="D22">
-        <v>5.344535745377939</v>
+        <v>7.282006690676307</v>
       </c>
       <c r="F22">
-        <v>19.5430307643392</v>
+        <v>12.9574379321622</v>
       </c>
       <c r="G22">
-        <v>20.43315116719076</v>
+        <v>12.54513073119169</v>
       </c>
       <c r="H22">
-        <v>12.34803007614222</v>
+        <v>6.558082288016523</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.61869476005571</v>
+        <v>15.97451179350491</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.65968746588203</v>
+        <v>9.513527443120195</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.89842219997662</v>
+        <v>18.0697008610894</v>
       </c>
       <c r="C23">
-        <v>7.508705970501435</v>
+        <v>9.733920474595875</v>
       </c>
       <c r="D23">
-        <v>5.294188534447495</v>
+        <v>7.172316809507899</v>
       </c>
       <c r="F23">
-        <v>19.57639585034532</v>
+        <v>12.92047089924644</v>
       </c>
       <c r="G23">
-        <v>20.49963245638942</v>
+        <v>12.57775243171035</v>
       </c>
       <c r="H23">
-        <v>12.3700684087994</v>
+        <v>6.614985368450727</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.49549213251572</v>
+        <v>15.72639123432169</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.70145920448343</v>
+        <v>9.599229640064197</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.27741820238464</v>
+        <v>16.80901943776385</v>
       </c>
       <c r="C24">
-        <v>7.308628856606841</v>
+        <v>9.260234079161537</v>
       </c>
       <c r="D24">
-        <v>5.097732645226571</v>
+        <v>6.740603702812607</v>
       </c>
       <c r="F24">
-        <v>19.7138461002245</v>
+        <v>12.82439368504493</v>
       </c>
       <c r="G24">
-        <v>20.7670620634235</v>
+        <v>12.7883481997458</v>
       </c>
       <c r="H24">
-        <v>12.45711534972913</v>
+        <v>6.839288138066993</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.01285216283875</v>
+        <v>14.74974392677966</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.86712341228419</v>
+        <v>9.950704068791884</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.561491735250826</v>
+        <v>15.33534465695987</v>
       </c>
       <c r="C25">
-        <v>7.086797060417347</v>
+        <v>8.724107544076281</v>
       </c>
       <c r="D25">
-        <v>4.874186759183072</v>
+        <v>6.240726682340162</v>
       </c>
       <c r="F25">
-        <v>19.88559679010333</v>
+        <v>12.80798270839859</v>
       </c>
       <c r="G25">
-        <v>21.0885500021882</v>
+        <v>13.17714908113517</v>
       </c>
       <c r="H25">
-        <v>12.55868169954606</v>
+        <v>7.098718923463779</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.45968613354388</v>
+        <v>13.61849652215268</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.06174780040752</v>
+        <v>10.38027632699227</v>
       </c>
     </row>
   </sheetData>
